--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek3LDOD1BRNTOTK50percentRL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek3LDOD1BRNTOTK50percentRL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -139,9 +144,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -158,12 +160,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,6 +337,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -379,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +420,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,15 +671,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -665,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -679,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -707,16 +749,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -764,7 +806,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -786,7 +828,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -808,7 +850,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -830,7 +872,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
@@ -861,23 +903,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="35" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -918,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="20" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
@@ -926,34 +968,34 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
@@ -961,34 +1003,34 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>38</v>
       </c>
@@ -996,34 +1038,34 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K4" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
@@ -1031,34 +1073,34 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>38</v>
       </c>
@@ -1066,28 +1108,28 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>4</v>
@@ -1102,24 +1144,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -1168,28 +1210,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>4</v>
